--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42993,6 +42993,41 @@
         <v>2207800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>593100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43028,6 +43028,41 @@
         <v>593100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1522400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43063,6 +43063,41 @@
         <v>1522400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3374100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43098,6 +43098,41 @@
         <v>3374100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>745200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43133,6 +43133,41 @@
         <v>745200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>807000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43168,6 +43168,41 @@
         <v>807000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>214300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43203,6 +43203,41 @@
         <v>214300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2586700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43238,6 +43238,41 @@
         <v>2586700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1498500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43273,6 +43273,41 @@
         <v>1498500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>378600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43308,6 +43308,41 @@
         <v>378600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1763500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43343,6 +43343,41 @@
         <v>1763500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>621700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43378,6 +43378,41 @@
         <v>621700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>865600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43413,6 +43413,76 @@
         <v>865600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1276100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3123600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43483,6 +43483,76 @@
         <v>3123600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1154900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>448500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43553,6 +43553,41 @@
         <v>448500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>836700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43588,6 +43588,41 @@
         <v>836700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>344700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43623,6 +43623,41 @@
         <v>344700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>775300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43658,6 +43658,41 @@
         <v>775300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>4421900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,76 @@
         <v>4421900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2430400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2236000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43763,6 +43763,41 @@
         <v>2236000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1806700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,41 @@
         <v>1806700</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2782200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2228"/>
+  <dimension ref="A1:I2229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78378,6 +78378,41 @@
         <v>2782200</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>2353700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2229"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78413,6 +78413,41 @@
         <v>2353700</v>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>2353500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78448,6 +78448,41 @@
         <v>2353500</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>11964300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2231"/>
+  <dimension ref="A1:I2232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78483,6 +78483,41 @@
         <v>11964300</v>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>3880200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78518,6 +78518,41 @@
         <v>3880200</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>1835100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2233"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78553,6 +78553,41 @@
         <v>1835100</v>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>715400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78588,6 +78588,41 @@
         <v>715400</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>1788500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78623,6 +78623,41 @@
         <v>1788500</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>2191700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78658,6 +78658,41 @@
         <v>2191700</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>2530900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2237"/>
+  <dimension ref="A1:I2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78693,6 +78693,41 @@
         <v>2530900</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>1890000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78728,6 +78728,41 @@
         <v>1890000</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>696600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78763,6 +78763,41 @@
         <v>696600</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>712200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78798,6 +78798,41 @@
         <v>712200</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>1628400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2241"/>
+  <dimension ref="A1:I2242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78833,6 +78833,41 @@
         <v>1628400</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>772100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4251.xlsx
+++ b/data/4251.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2242"/>
+  <dimension ref="A1:I2243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78868,6 +78868,41 @@
         <v>772100</v>
       </c>
     </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>IBHD</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>640600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
